--- a/VDM/aspose/农户信息导入模板.xlsx
+++ b/VDM/aspose/农户信息导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18352" windowHeight="8055"/>
+    <workbookView windowWidth="18350" windowHeight="6880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
     </border>
   </borders>
   <cellStyleXfs count="55">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1331,31 +1331,31 @@
   <sheetPr/>
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07079646017699" defaultRowHeight="13.2" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.07272727272727" defaultRowHeight="13.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.66371681415929" customWidth="1"/>
-    <col min="2" max="2" width="9.60176991150442" customWidth="1"/>
-    <col min="3" max="3" width="19.8672566371681" customWidth="1"/>
-    <col min="4" max="4" width="12.7345132743363" customWidth="1"/>
-    <col min="5" max="5" width="14.3982300884956" customWidth="1"/>
-    <col min="6" max="7" width="13.4690265486726" customWidth="1"/>
-    <col min="8" max="8" width="13.1327433628319" customWidth="1"/>
-    <col min="9" max="9" width="13.4690265486726" customWidth="1"/>
-    <col min="10" max="10" width="23.1327433628319" customWidth="1"/>
-    <col min="11" max="12" width="13.1327433628319" customWidth="1"/>
-    <col min="13" max="13" width="13.4690265486726" customWidth="1"/>
-    <col min="14" max="14" width="15.1327433628319" customWidth="1"/>
-    <col min="15" max="15" width="13.1327433628319" customWidth="1"/>
-    <col min="16" max="16" width="13.4690265486726" customWidth="1"/>
-    <col min="17" max="18" width="27.7345132743363" customWidth="1"/>
-    <col min="19" max="20" width="15.6637168141593" customWidth="1"/>
-    <col min="21" max="21" width="19.6637168141593" customWidth="1"/>
-    <col min="22" max="22" width="17.2035398230088" customWidth="1"/>
-    <col min="23" max="24" width="7.66371681415929" customWidth="1"/>
+    <col min="1" max="1" width="5.66363636363636" customWidth="1"/>
+    <col min="2" max="2" width="9.6" customWidth="1"/>
+    <col min="3" max="3" width="19.8636363636364" customWidth="1"/>
+    <col min="4" max="4" width="12.7363636363636" customWidth="1"/>
+    <col min="5" max="5" width="14.4" customWidth="1"/>
+    <col min="6" max="7" width="13.4727272727273" customWidth="1"/>
+    <col min="8" max="8" width="13.1363636363636" customWidth="1"/>
+    <col min="9" max="9" width="13.4727272727273" customWidth="1"/>
+    <col min="10" max="10" width="23.1363636363636" customWidth="1"/>
+    <col min="11" max="12" width="13.1363636363636" customWidth="1"/>
+    <col min="13" max="13" width="13.4727272727273" customWidth="1"/>
+    <col min="14" max="14" width="15.1363636363636" customWidth="1"/>
+    <col min="15" max="15" width="13.1363636363636" customWidth="1"/>
+    <col min="16" max="16" width="13.4727272727273" customWidth="1"/>
+    <col min="17" max="18" width="27.7363636363636" customWidth="1"/>
+    <col min="19" max="20" width="15.6636363636364" customWidth="1"/>
+    <col min="21" max="21" width="19.6636363636364" customWidth="1"/>
+    <col min="22" max="22" width="17.2" customWidth="1"/>
+    <col min="23" max="24" width="7.66363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:24">
@@ -1433,19 +1433,10 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 J1 M1 P1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
-      <formula1>"小麦,玉米,苹果,桃,樱桃,葡萄,其他,无"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576 P2:P1048576">
-      <formula1>"耕地,园地,林地,牧草地,农田水利设施用地"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 G$1:G$1048576 I$1:I$1048576 M$1:M$1048576 P$1:P$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
-      <formula1>"猪,牛,羊,鸡,鸭,鹅,鱼类,蟹类,虾类,其它,无"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/VDM/aspose/农户信息导入模板.xlsx
+++ b/VDM/aspose/农户信息导入模板.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>编号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>户主姓名</t>
   </si>
@@ -1329,36 +1326,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07272727272727" defaultRowHeight="13.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.66363636363636" customWidth="1"/>
-    <col min="2" max="2" width="9.6" customWidth="1"/>
-    <col min="3" max="3" width="19.8636363636364" customWidth="1"/>
-    <col min="4" max="4" width="12.7363636363636" customWidth="1"/>
-    <col min="5" max="5" width="14.4" customWidth="1"/>
-    <col min="6" max="7" width="13.4727272727273" customWidth="1"/>
-    <col min="8" max="8" width="13.1363636363636" customWidth="1"/>
-    <col min="9" max="9" width="13.4727272727273" customWidth="1"/>
-    <col min="10" max="10" width="23.1363636363636" customWidth="1"/>
-    <col min="11" max="12" width="13.1363636363636" customWidth="1"/>
-    <col min="13" max="13" width="13.4727272727273" customWidth="1"/>
-    <col min="14" max="14" width="15.1363636363636" customWidth="1"/>
-    <col min="15" max="15" width="13.1363636363636" customWidth="1"/>
-    <col min="16" max="16" width="13.4727272727273" customWidth="1"/>
-    <col min="17" max="18" width="27.7363636363636" customWidth="1"/>
-    <col min="19" max="20" width="15.6636363636364" customWidth="1"/>
-    <col min="21" max="21" width="19.6636363636364" customWidth="1"/>
-    <col min="22" max="22" width="17.2" customWidth="1"/>
-    <col min="23" max="24" width="7.66363636363636" customWidth="1"/>
+    <col min="1" max="1" width="9.6" customWidth="1"/>
+    <col min="2" max="2" width="19.8636363636364" customWidth="1"/>
+    <col min="3" max="3" width="12.7363636363636" customWidth="1"/>
+    <col min="4" max="4" width="14.4" customWidth="1"/>
+    <col min="5" max="6" width="13.4727272727273" customWidth="1"/>
+    <col min="7" max="7" width="13.1363636363636" customWidth="1"/>
+    <col min="8" max="8" width="13.4727272727273" customWidth="1"/>
+    <col min="9" max="9" width="23.1363636363636" customWidth="1"/>
+    <col min="10" max="11" width="13.1363636363636" customWidth="1"/>
+    <col min="12" max="12" width="13.4727272727273" customWidth="1"/>
+    <col min="13" max="13" width="15.1363636363636" customWidth="1"/>
+    <col min="14" max="14" width="13.1363636363636" customWidth="1"/>
+    <col min="15" max="15" width="13.4727272727273" customWidth="1"/>
+    <col min="16" max="17" width="27.7363636363636" customWidth="1"/>
+    <col min="18" max="19" width="15.6636363636364" customWidth="1"/>
+    <col min="20" max="20" width="19.6636363636364" customWidth="1"/>
+    <col min="21" max="21" width="17.2" customWidth="1"/>
+    <col min="22" max="23" width="7.66363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:24">
+    <row r="1" customHeight="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1427,15 +1423,12 @@
       </c>
       <c r="W1" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 G$1:G$1048576 I$1:I$1048576 M$1:M$1048576 P$1:P$1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 F$1:F$1048576 H$1:H$1048576 L$1:L$1048576 O$1:O$1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
